--- a/backend/Resultados/ramo_adm2023_6.xlsx
+++ b/backend/Resultados/ramo_adm2023_6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="139">
   <si>
     <t>Asociación Mexicana de Garantías</t>
   </si>
@@ -92,72 +92,156 @@
     <t>6 / 4</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Aseguradora Aserta, S.A. DE C.V.</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Aseguradora Insurgentes, S.A. de C.V.</t>
   </si>
   <si>
-    <t>277500408.8000</t>
-  </si>
-  <si>
-    <t>214931543.4200</t>
-  </si>
-  <si>
-    <t>306573117.0400</t>
-  </si>
-  <si>
-    <t>97406014.3000</t>
-  </si>
-  <si>
-    <t>47663104.6000</t>
+    <t>277500</t>
+  </si>
+  <si>
+    <t>214932</t>
+  </si>
+  <si>
+    <t>62569</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>306573</t>
+  </si>
+  <si>
+    <t>110.5</t>
+  </si>
+  <si>
+    <t>119.9</t>
+  </si>
+  <si>
+    <t>97406</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>486668</t>
+  </si>
+  <si>
+    <t>40779330.9</t>
+  </si>
+  <si>
+    <t>9457</t>
+  </si>
+  <si>
+    <t>-9457</t>
+  </si>
+  <si>
+    <t>-64314121</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Inbursa Seguros de Caución y Fianzas, S.A.</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Berkley International Fianzas México, S.A. DE C.V.</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Chubb Fianzas Monterrey, Aseguradora de Caución, S.A.</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Liberty Fianzas, S.A. de C.V.</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Tokio Marine, S.A.</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Fianzas y Cauciones Atlas, S.A.</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Fianzas Avanza, S.A. de C.V.</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>AVLA Seguros. S. A de C.V.</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Mapfre Fianzas, S.A. de C.V.</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Cescemex, S.A. de C.V.</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Crédito Afianzador, S.A.</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Fianzas Asecam, S.A.</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Fiducia, S.A.</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Dorama, Institución de Garantías, S.A.</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Sofimex, Institución de Garantías, S.A.</t>
   </si>
   <si>
@@ -185,46 +269,52 @@
     <t>Resultado Op. Analogas y C.</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>7/4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>8/1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>9/4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>10/6</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>11/1</t>
   </si>
   <si>
-    <t>4779491.2600</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>465606638.2800</t>
-  </si>
-  <si>
-    <t>251389059.0600</t>
+    <t>4423</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>187250</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>251389</t>
+  </si>
+  <si>
+    <t>51.7</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>109571</t>
   </si>
   <si>
     <t>Gastos de Operación</t>
@@ -236,27 +326,18 @@
     <t>Producto Financiero</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>13/1</t>
   </si>
   <si>
     <t>13/4</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>14/1</t>
   </si>
   <si>
     <t>14/4</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>15/1</t>
   </si>
   <si>
@@ -266,13 +347,49 @@
     <t>Prom. Inv.</t>
   </si>
   <si>
-    <t>115137978.4100</t>
-  </si>
-  <si>
-    <t>40253278.5900</t>
-  </si>
-  <si>
-    <t>85382749.2400</t>
+    <t>115138</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>80.9</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>42.7</t>
+  </si>
+  <si>
+    <t>40253</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>-51.4</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>-27.1</t>
+  </si>
+  <si>
+    <t>85383</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>-14.4</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>-7.6</t>
   </si>
   <si>
     <t>Otras Reservas</t>
@@ -293,15 +410,9 @@
     <t>Indice Combinado</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>16/1</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>17/1</t>
   </si>
   <si>
@@ -317,13 +428,22 @@
     <t>19/1</t>
   </si>
   <si>
-    <t>-45820021.0600</t>
-  </si>
-  <si>
-    <t>-39254.2000</t>
-  </si>
-  <si>
-    <t>39059313.3900</t>
+    <t>-45820</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>39059</t>
+  </si>
+  <si>
+    <t>444571</t>
+  </si>
+  <si>
+    <t>536606</t>
   </si>
 </sst>
 </file>
@@ -1926,50 +2046,68 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>1</v>
+      <c r="A15" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="45">
-        <v>0</v>
-      </c>
-      <c r="N15" s="46">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="45">
-        <v>0</v>
-      </c>
-      <c r="T15" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V15" s="49"/>
       <c r="W15" s="3"/>
@@ -1980,62 +2118,68 @@
       <c r="AB15" s="50"/>
     </row>
     <row r="16" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>2</v>
+      <c r="A16" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="45" t="s">
+      <c r="O16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="45">
-        <v>0</v>
-      </c>
-      <c r="N16" s="46">
-        <v>0</v>
-      </c>
-      <c r="O16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="R16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="45">
-        <v>0</v>
-      </c>
-      <c r="T16" s="46">
-        <v>NaN</v>
+      <c r="S16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U16" s="46" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="V16" s="49"/>
       <c r="W16" s="3"/>
@@ -2046,50 +2190,68 @@
       <c r="AB16" s="50"/>
     </row>
     <row r="17" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>3</v>
+      <c r="A17" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="45">
-        <v>0</v>
-      </c>
-      <c r="N17" s="46">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="45">
-        <v>0</v>
-      </c>
-      <c r="T17" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V17" s="49"/>
       <c r="W17" s="3"/>
@@ -2100,50 +2262,68 @@
       <c r="AB17" s="50"/>
     </row>
     <row r="18" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>4</v>
+      <c r="A18" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="45">
-        <v>0</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="45">
-        <v>0</v>
-      </c>
-      <c r="T18" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V18" s="49"/>
       <c r="W18" s="3"/>
@@ -2154,50 +2334,68 @@
       <c r="AB18" s="50"/>
     </row>
     <row r="19" ht="13.05" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>5</v>
+      <c r="A19" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="45">
-        <v>0</v>
-      </c>
-      <c r="N19" s="46">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="45">
-        <v>0</v>
-      </c>
-      <c r="T19" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U19" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
@@ -2208,50 +2406,68 @@
       <c r="AB19" s="52"/>
     </row>
     <row r="20" ht="13.05" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>6</v>
+      <c r="A20" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="45">
-        <v>0</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="45">
-        <v>0</v>
-      </c>
-      <c r="T20" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U20" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V20" s="52"/>
       <c r="W20" s="52"/>
@@ -2262,525 +2478,723 @@
       <c r="AB20" s="52"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>7</v>
+      <c r="A21" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="45">
-        <v>0</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="45">
-        <v>0</v>
-      </c>
-      <c r="T21" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U21" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>8</v>
+      <c r="A22" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="45">
-        <v>0</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="45">
-        <v>0</v>
-      </c>
-      <c r="T22" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U22" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>9</v>
+      <c r="A23" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45">
-        <v>0</v>
-      </c>
-      <c r="N23" s="46">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="45">
-        <v>0</v>
-      </c>
-      <c r="T23" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U23" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>10</v>
+      <c r="A24" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="45">
-        <v>0</v>
-      </c>
-      <c r="N24" s="46">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="45">
-        <v>0</v>
-      </c>
-      <c r="T24" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U24" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>11</v>
+      <c r="A25" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="45">
-        <v>0</v>
-      </c>
-      <c r="N25" s="46">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="45">
-        <v>0</v>
-      </c>
-      <c r="T25" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U25" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>12</v>
+      <c r="A26" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="45">
-        <v>0</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="45">
-        <v>0</v>
-      </c>
-      <c r="T26" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U26" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>13</v>
+      <c r="A27" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L27" s="46"/>
-      <c r="M27" s="45">
-        <v>0</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S27" s="45">
-        <v>0</v>
-      </c>
-      <c r="T27" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U27" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>14</v>
+      <c r="A28" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="45">
-        <v>0</v>
-      </c>
-      <c r="N28" s="46">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S28" s="45">
-        <v>0</v>
-      </c>
-      <c r="T28" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U28" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>15</v>
+      <c r="A29" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="45">
-        <v>0</v>
-      </c>
-      <c r="N29" s="46">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S29" s="45">
-        <v>0</v>
-      </c>
-      <c r="T29" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U29" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>16</v>
+      <c r="A30" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="45">
-        <v>0</v>
-      </c>
-      <c r="N30" s="46">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="45">
-        <v>0</v>
-      </c>
-      <c r="T30" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U30" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>17</v>
+      <c r="A31" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47">
-        <v>NaN</v>
-      </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="45">
-        <v>0</v>
-      </c>
-      <c r="N31" s="46">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="O31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S31" s="45">
-        <v>0</v>
-      </c>
-      <c r="T31" s="46">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="S31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="U31" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -2825,7 +3239,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -3026,32 +3440,32 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="22"/>
       <c r="F10" s="67" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="22"/>
       <c r="I10" s="67" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="22"/>
       <c r="L10" s="67" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="22"/>
       <c r="O10" s="67" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="P10" s="68"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="69" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="S10" s="70"/>
       <c r="T10" s="71"/>
@@ -3162,38 +3576,38 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="80">
@@ -3222,42 +3636,62 @@
       <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>1</v>
+      <c r="A15" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15" s="71"/>
       <c r="U15" s="49"/>
@@ -3269,54 +3703,62 @@
       <c r="AA15" s="50"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>2</v>
+      <c r="A16" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
+        <v>93</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N16" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
+        <v>94</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="Q16" s="46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16" s="83"/>
       <c r="U16" s="84"/>
@@ -3328,42 +3770,62 @@
       <c r="AA16" s="50"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>3</v>
+      <c r="A17" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T17" s="83"/>
       <c r="V17" s="3"/>
@@ -3374,42 +3836,62 @@
       <c r="AA17" s="50"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>4</v>
+      <c r="A18" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N18" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T18" s="83"/>
       <c r="U18" s="85"/>
@@ -3421,42 +3903,62 @@
       <c r="AA18" s="50"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>5</v>
+      <c r="A19" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N19" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q19" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T19" s="83"/>
       <c r="V19" s="3"/>
@@ -3467,42 +3969,62 @@
       <c r="AA19" s="50"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>6</v>
+      <c r="A20" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N20" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q20" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T20" s="86"/>
       <c r="U20" s="87"/>
@@ -3514,42 +4036,62 @@
       <c r="AA20" s="50"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>7</v>
+      <c r="A21" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N21" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q21" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T21" s="83"/>
       <c r="V21" s="3"/>
@@ -3560,42 +4102,62 @@
       <c r="AA21" s="50"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>8</v>
+      <c r="A22" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+        <v>53</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N22" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q22" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22" s="83"/>
       <c r="U22" s="49"/>
@@ -3607,42 +4169,62 @@
       <c r="AA22" s="50"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>9</v>
+      <c r="A23" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N23" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q23" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T23" s="83"/>
       <c r="U23" s="88"/>
@@ -3654,42 +4236,62 @@
       <c r="AA23" s="50"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>10</v>
+      <c r="A24" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q24" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T24" s="83"/>
       <c r="U24" s="49"/>
@@ -3701,42 +4303,62 @@
       <c r="AA24" s="50"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>11</v>
+      <c r="A25" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q25" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T25" s="83"/>
       <c r="U25" s="49"/>
@@ -3748,42 +4370,62 @@
       <c r="AA25" s="50"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>12</v>
+      <c r="A26" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N26" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q26" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S26" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T26" s="83"/>
       <c r="U26" s="49"/>
@@ -3795,42 +4437,62 @@
       <c r="AA26" s="50"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>13</v>
+      <c r="A27" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+        <v>63</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N27" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q27" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T27" s="83"/>
       <c r="V27" s="3"/>
@@ -3841,42 +4503,62 @@
       <c r="AA27" s="50"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>14</v>
+      <c r="A28" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q28" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S28" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28" s="83"/>
       <c r="U28" s="49"/>
@@ -3888,42 +4570,62 @@
       <c r="AA28" s="50"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>15</v>
+      <c r="A29" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
+        <v>67</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N29" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q29" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S29" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T29" s="83"/>
       <c r="U29" s="49"/>
@@ -3935,42 +4637,62 @@
       <c r="AA29" s="50"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>16</v>
+      <c r="A30" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q30" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T30" s="83"/>
       <c r="U30" s="49"/>
@@ -3982,42 +4704,62 @@
       <c r="AA30" s="50"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>17</v>
+      <c r="A31" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
+        <v>71</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="E31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="H31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="K31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="N31" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="Q31" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S31" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T31" s="83"/>
       <c r="U31" s="49"/>
@@ -4030,7 +4772,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -4073,7 +4815,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -4272,21 +5014,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68"/>
       <c r="G10" s="22"/>
       <c r="H10" s="67" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
       <c r="L10" s="22"/>
       <c r="M10" s="67" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N10" s="68"/>
       <c r="O10" s="68"/>
@@ -4395,40 +5137,40 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="94" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="78" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G13" s="79"/>
       <c r="H13" s="94" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="78" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="L13" s="79"/>
       <c r="M13" s="94" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="O13" s="79"/>
       <c r="P13" s="78" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="79"/>
       <c r="R13" s="78" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="S13" s="79"/>
     </row>
@@ -4450,56 +5192,62 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>1</v>
+      <c r="A15" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q15" s="46">
-        <v>NaN</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4510,62 +5258,62 @@
       <c r="Z15" s="50"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>2</v>
+      <c r="A16" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G16" s="46">
-        <v>NaN</v>
+        <v>106</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L16" s="46">
-        <v>NaN</v>
+        <v>111</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>NaN</v>
+        <v>116</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4576,56 +5324,62 @@
       <c r="Z16" s="50"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>3</v>
+      <c r="A17" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q17" s="46">
-        <v>NaN</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4636,56 +5390,62 @@
       <c r="Z17" s="50"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>4</v>
+      <c r="A18" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>NaN</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4696,56 +5456,62 @@
       <c r="Z18" s="50"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
-        <v>5</v>
+      <c r="A19" s="95" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q19" s="98">
-        <v>NaN</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R19" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S19" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -4756,56 +5522,62 @@
       <c r="Z19" s="50"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
-        <v>6</v>
+      <c r="A20" s="95" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q20" s="98">
-        <v>NaN</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -4816,56 +5588,62 @@
       <c r="Z20" s="50"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
-        <v>7</v>
+      <c r="A21" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q21" s="98">
-        <v>NaN</v>
+        <v>51</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R21" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S21" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -4876,56 +5654,62 @@
       <c r="Z21" s="50"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
-        <v>8</v>
+      <c r="A22" s="95" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q22" s="98">
-        <v>NaN</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R22" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -4936,56 +5720,62 @@
       <c r="Z22" s="50"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
-        <v>9</v>
+      <c r="A23" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q23" s="98">
-        <v>NaN</v>
+        <v>55</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R23" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -4996,56 +5786,62 @@
       <c r="Z23" s="50"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
-        <v>10</v>
+      <c r="A24" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q24" s="98">
-        <v>NaN</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R24" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -5056,56 +5852,62 @@
       <c r="Z24" s="50"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="95">
-        <v>11</v>
+      <c r="A25" s="95" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q25" s="98">
-        <v>NaN</v>
+        <v>59</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R25" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -5116,56 +5918,62 @@
       <c r="Z25" s="50"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="95">
-        <v>12</v>
+      <c r="A26" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M26" s="45"/>
-      <c r="N26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q26" s="98">
-        <v>NaN</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R26" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S26" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -5176,56 +5984,62 @@
       <c r="Z26" s="50"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="95">
-        <v>13</v>
+      <c r="A27" s="95" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q27" s="98">
-        <v>NaN</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R27" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S27" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -5236,56 +6050,62 @@
       <c r="Z27" s="50"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="95">
-        <v>14</v>
+      <c r="A28" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q28" s="98">
-        <v>NaN</v>
+        <v>65</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R28" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S28" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -5296,56 +6116,62 @@
       <c r="Z28" s="50"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="95">
-        <v>15</v>
+      <c r="A29" s="95" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q29" s="98">
-        <v>NaN</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R29" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S29" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -5356,56 +6182,62 @@
       <c r="Z29" s="50"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="95">
-        <v>16</v>
+      <c r="A30" s="95" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q30" s="98">
-        <v>NaN</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R30" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S30" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -5416,56 +6248,62 @@
       <c r="Z30" s="50"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="95">
-        <v>17</v>
+      <c r="A31" s="95" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="G31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="J31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="O31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="Q31" s="98">
-        <v>NaN</v>
+        <v>71</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="R31" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S31" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -5477,7 +6315,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C14:C31)</f>
@@ -5508,7 +6346,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -5687,31 +6525,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="22"/>
       <c r="F10" s="67" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="22"/>
       <c r="I10" s="67" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="22"/>
       <c r="L10" s="104" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="M10" s="105"/>
       <c r="N10" s="67" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="104" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="R10" s="105"/>
     </row>
@@ -5807,24 +6645,24 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="36" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J13" s="78" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K13" s="79"/>
       <c r="L13" s="108">
@@ -5834,10 +6672,10 @@
         <v>2019</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="P13" s="79"/>
       <c r="Q13" s="110" t="s">
@@ -5866,796 +6704,960 @@
       <c r="R14" s="112"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>1</v>
+      <c r="A15" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P15" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>2</v>
+      <c r="A16" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E16" s="46">
-        <v>NaN</v>
+        <v>133</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H16" s="46">
-        <v>NaN</v>
+        <v>135</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+        <v>136</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N16" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P16" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>24</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>3</v>
+      <c r="A17" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N17" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P17" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>4</v>
+      <c r="A18" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N18" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P18" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
-        <v>5</v>
+      <c r="A19" s="95" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E19" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H19" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K19" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="97" t="s">
+        <v>23</v>
+      </c>
       <c r="N19" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P19" s="98">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="Q19" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R19" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
-        <v>6</v>
+      <c r="A20" s="95" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E20" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H20" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K20" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="97" t="s">
+        <v>23</v>
+      </c>
       <c r="N20" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P20" s="98">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="Q20" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
-        <v>7</v>
+      <c r="A21" s="95" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N21" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P21" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q21" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
-        <v>8</v>
+      <c r="A22" s="95" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
+        <v>53</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N22" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P22" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
-        <v>9</v>
+      <c r="A23" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N23" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P23" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q23" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
-        <v>10</v>
+      <c r="A24" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N24" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P24" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q24" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="95">
-        <v>11</v>
+      <c r="A25" s="95" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N25" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P25" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="95">
-        <v>12</v>
+      <c r="A26" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N26" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P26" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q26" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="95">
-        <v>13</v>
+      <c r="A27" s="95" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N27" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P27" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q27" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="95">
-        <v>14</v>
+      <c r="A28" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N28" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P28" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q28" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="95">
-        <v>15</v>
+      <c r="A29" s="95" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
+        <v>67</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="N29" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P29" s="46">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>23</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="95">
-        <v>16</v>
+      <c r="A30" s="95" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E30" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H30" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="I30" s="97"/>
-      <c r="J30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K30" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
+        <v>69</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="97" t="s">
+        <v>23</v>
+      </c>
       <c r="N30" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P30" s="98">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="Q30" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R30" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="95">
-        <v>17</v>
+      <c r="A31" s="95" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="E31" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="H31" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="I31" s="97"/>
-      <c r="J31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="K31" s="98">
-        <v>NaN</v>
-      </c>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
+        <v>71</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="97" t="s">
+        <v>23</v>
+      </c>
       <c r="N31" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="46">
-        <v>NaN</v>
-      </c>
-      <c r="P31" s="98">
-        <v>NaN</v>
+        <v>23</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="98" t="s">
+        <v>23</v>
       </c>
       <c r="Q31" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R31" s="98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -6700,7 +7702,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>

--- a/backend/Resultados/ramo_adm2023_6.xlsx
+++ b/backend/Resultados/ramo_adm2023_6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="146">
   <si>
     <t>Asociación Mexicana de Garantías</t>
   </si>
@@ -101,7 +101,28 @@
     <t>0</t>
   </si>
   <si>
+    <t>1064609</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>30733127.6</t>
+  </si>
+  <si>
+    <t>32756</t>
+  </si>
+  <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>-32756</t>
+  </si>
+  <si>
+    <t>-756213155</t>
   </si>
   <si>
     <t>2</t>
@@ -2056,7 +2077,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>23</v>
@@ -2071,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="45" t="s">
         <v>23</v>
@@ -2080,7 +2101,7 @@
         <v>23</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="45" t="s">
         <v>23</v>
@@ -2089,25 +2110,25 @@
         <v>23</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="U15" s="46" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="V15" s="49"/>
       <c r="W15" s="3"/>
@@ -2119,67 +2140,67 @@
     </row>
     <row r="16" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="O16" s="46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="U16" s="46" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="V16" s="49"/>
       <c r="W16" s="3"/>
@@ -2191,10 +2212,10 @@
     </row>
     <row r="17" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -2242,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S17" s="45" t="s">
         <v>23</v>
@@ -2263,10 +2284,10 @@
     </row>
     <row r="18" ht="13.05" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -2314,7 +2335,7 @@
         <v>23</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S18" s="45" t="s">
         <v>23</v>
@@ -2335,10 +2356,10 @@
     </row>
     <row r="19" ht="13.05" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>23</v>
@@ -2386,7 +2407,7 @@
         <v>23</v>
       </c>
       <c r="R19" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S19" s="45" t="s">
         <v>23</v>
@@ -2407,10 +2428,10 @@
     </row>
     <row r="20" ht="13.05" customHeight="1" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>23</v>
@@ -2458,7 +2479,7 @@
         <v>23</v>
       </c>
       <c r="R20" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S20" s="45" t="s">
         <v>23</v>
@@ -2479,10 +2500,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -2530,7 +2551,7 @@
         <v>23</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S21" s="45" t="s">
         <v>23</v>
@@ -2544,10 +2565,10 @@
     </row>
     <row r="22" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -2595,7 +2616,7 @@
         <v>23</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S22" s="45" t="s">
         <v>23</v>
@@ -2609,10 +2630,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -2660,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="R23" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S23" s="45" t="s">
         <v>23</v>
@@ -2674,10 +2695,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -2725,7 +2746,7 @@
         <v>23</v>
       </c>
       <c r="R24" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S24" s="45" t="s">
         <v>23</v>
@@ -2739,10 +2760,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -2790,7 +2811,7 @@
         <v>23</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S25" s="45" t="s">
         <v>23</v>
@@ -2804,10 +2825,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -2855,7 +2876,7 @@
         <v>23</v>
       </c>
       <c r="R26" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>23</v>
@@ -2869,10 +2890,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -2920,7 +2941,7 @@
         <v>23</v>
       </c>
       <c r="R27" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S27" s="45" t="s">
         <v>23</v>
@@ -2934,10 +2955,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -2985,7 +3006,7 @@
         <v>23</v>
       </c>
       <c r="R28" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S28" s="45" t="s">
         <v>23</v>
@@ -2999,10 +3020,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -3050,7 +3071,7 @@
         <v>23</v>
       </c>
       <c r="R29" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S29" s="45" t="s">
         <v>23</v>
@@ -3064,10 +3085,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>23</v>
@@ -3115,7 +3136,7 @@
         <v>23</v>
       </c>
       <c r="R30" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S30" s="45" t="s">
         <v>23</v>
@@ -3129,10 +3150,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>23</v>
@@ -3180,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="R31" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S31" s="45" t="s">
         <v>23</v>
@@ -3194,7 +3215,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -3239,7 +3260,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -3440,32 +3461,32 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="22"/>
       <c r="F10" s="67" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="22"/>
       <c r="I10" s="67" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="22"/>
       <c r="L10" s="67" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="68"/>
       <c r="N10" s="22"/>
       <c r="O10" s="67" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P10" s="68"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="69" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="S10" s="70"/>
       <c r="T10" s="71"/>
@@ -3576,38 +3597,38 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="36" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="36" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="80">
@@ -3649,7 +3670,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>23</v>
@@ -3704,37 +3725,37 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>23</v>
@@ -3743,16 +3764,16 @@
         <v>23</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R16" s="45" t="s">
         <v>23</v>
@@ -3771,10 +3792,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -3837,10 +3858,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -3904,10 +3925,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>23</v>
@@ -3970,10 +3991,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>23</v>
@@ -4037,10 +4058,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -4103,10 +4124,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -4170,10 +4191,10 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -4237,10 +4258,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -4304,10 +4325,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -4371,10 +4392,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -4438,10 +4459,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -4504,10 +4525,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -4571,10 +4592,10 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -4638,10 +4659,10 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>23</v>
@@ -4705,10 +4726,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>23</v>
@@ -4772,7 +4793,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -4815,7 +4836,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -5014,21 +5035,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68"/>
       <c r="G10" s="22"/>
       <c r="H10" s="67" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
       <c r="L10" s="22"/>
       <c r="M10" s="67" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="N10" s="68"/>
       <c r="O10" s="68"/>
@@ -5137,40 +5158,40 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="94" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="78" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G13" s="79"/>
       <c r="H13" s="94" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="78" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L13" s="79"/>
       <c r="M13" s="94" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O13" s="79"/>
       <c r="P13" s="78" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="79"/>
       <c r="R13" s="78" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="S13" s="79"/>
     </row>
@@ -5259,55 +5280,55 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O16" s="46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R16" s="46" t="s">
         <v>23</v>
@@ -5325,10 +5346,10 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -5391,10 +5412,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -5457,10 +5478,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="97" t="s">
         <v>23</v>
@@ -5523,10 +5544,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="97" t="s">
         <v>23</v>
@@ -5589,10 +5610,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21" s="97" t="s">
         <v>23</v>
@@ -5655,10 +5676,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="97" t="s">
         <v>23</v>
@@ -5721,10 +5742,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" s="97" t="s">
         <v>23</v>
@@ -5787,10 +5808,10 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" s="97" t="s">
         <v>23</v>
@@ -5853,10 +5874,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" s="97" t="s">
         <v>23</v>
@@ -5919,10 +5940,10 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>23</v>
@@ -5985,10 +6006,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C27" s="97" t="s">
         <v>23</v>
@@ -6051,10 +6072,10 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="97" t="s">
         <v>23</v>
@@ -6117,10 +6138,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="95" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="97" t="s">
         <v>23</v>
@@ -6183,10 +6204,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="97" t="s">
         <v>23</v>
@@ -6249,10 +6270,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" s="97" t="s">
         <v>23</v>
@@ -6315,7 +6336,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C14:C31)</f>
@@ -6346,7 +6367,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
@@ -6525,31 +6546,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="22"/>
       <c r="F10" s="67" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="22"/>
       <c r="I10" s="67" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="22"/>
       <c r="L10" s="104" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="105"/>
       <c r="N10" s="67" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
       <c r="Q10" s="104" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="R10" s="105"/>
     </row>
@@ -6645,24 +6666,24 @@
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="36" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J13" s="78" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K13" s="79"/>
       <c r="L13" s="108">
@@ -6672,10 +6693,10 @@
         <v>2019</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P13" s="79"/>
       <c r="Q13" s="110" t="s">
@@ -6761,37 +6782,37 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>23</v>
@@ -6806,21 +6827,21 @@
         <v>23</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -6873,10 +6894,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>23</v>
@@ -6929,10 +6950,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="97" t="s">
         <v>23</v>
@@ -6985,10 +7006,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" s="97" t="s">
         <v>23</v>
@@ -7041,10 +7062,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>23</v>
@@ -7097,10 +7118,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>23</v>
@@ -7153,10 +7174,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>23</v>
@@ -7209,10 +7230,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>23</v>
@@ -7265,10 +7286,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>23</v>
@@ -7321,10 +7342,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>23</v>
@@ -7377,10 +7398,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>23</v>
@@ -7433,10 +7454,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>23</v>
@@ -7489,10 +7510,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="95" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>23</v>
@@ -7545,10 +7566,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C30" s="97" t="s">
         <v>23</v>
@@ -7601,10 +7622,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" s="97" t="s">
         <v>23</v>
@@ -7657,7 +7678,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C32" s="56">
         <f>SUM(C15:C31)</f>
@@ -7702,7 +7723,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B35" s="59">
         <v>2023</v>
